--- a/Excel Data/KanbanList.xlsx
+++ b/Excel Data/KanbanList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joint\OneDrive - Texas State University\001 Personal\Label Maker Repository\Label-maker\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{7C4CBF1D-6357-4C57-AC28-38B1AC586B8B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{A81A41EF-0290-49C9-88E7-D4D42245545E}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{7C4CBF1D-6357-4C57-AC28-38B1AC586B8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1F87B6F2-31C3-4F4D-AEBF-0E95146FDCB4}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{3341A95F-6DBF-473C-B641-113F26C249BC}"/>
+    <workbookView minimized="1" xWindow="6735" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{3341A95F-6DBF-473C-B641-113F26C249BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="316">
   <si>
     <t>Part Num</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Alupress</t>
   </si>
   <si>
-    <t>Sumida 1440 Per Pallet</t>
-  </si>
-  <si>
     <t>A1531559A0100</t>
   </si>
   <si>
@@ -567,9 +564,6 @@
     <t>A2C9652980000</t>
   </si>
   <si>
-    <t>A2C3021470000</t>
-  </si>
-  <si>
     <t>A2C1931750000</t>
   </si>
   <si>
@@ -600,9 +594,6 @@
     <t>602-01-A/B</t>
   </si>
   <si>
-    <t>606-01-A3/2</t>
-  </si>
-  <si>
     <t>603-15-D1/2</t>
   </si>
   <si>
@@ -693,9 +684,6 @@
     <t>606-10-A3/4</t>
   </si>
   <si>
-    <t>606-09-D1/2</t>
-  </si>
-  <si>
     <t>603-16-B/C</t>
   </si>
   <si>
@@ -822,9 +810,6 @@
     <t>604-02-B3 &amp; C</t>
   </si>
   <si>
-    <t>604-01-B/C/D</t>
-  </si>
-  <si>
     <t>605-12-B/C/S &amp; 13-A &amp; 606-03-A/B/C/D</t>
   </si>
   <si>
@@ -937,6 +922,63 @@
   </si>
   <si>
     <t>604-01-B</t>
+  </si>
+  <si>
+    <t>606-01-A1/2</t>
+  </si>
+  <si>
+    <t>Sumida 2160 Per Pallet</t>
+  </si>
+  <si>
+    <t>601-01-A/B/C/D</t>
+  </si>
+  <si>
+    <t>A2C7623960100</t>
+  </si>
+  <si>
+    <t>Dynaplas</t>
+  </si>
+  <si>
+    <t>604-13-B1-3</t>
+  </si>
+  <si>
+    <t>A2C7623980100</t>
+  </si>
+  <si>
+    <t>604-06-B1-3</t>
+  </si>
+  <si>
+    <t>A2C7634430200</t>
+  </si>
+  <si>
+    <t>604-12-B-3</t>
+  </si>
+  <si>
+    <t>A2C7723110000</t>
+  </si>
+  <si>
+    <t>604-06-D1-3</t>
+  </si>
+  <si>
+    <t>A2C7723120000</t>
+  </si>
+  <si>
+    <t>604-06-C1-3</t>
+  </si>
+  <si>
+    <t>A2C9175080000</t>
+  </si>
+  <si>
+    <t>604-13-A1=3</t>
+  </si>
+  <si>
+    <t>A2C9237910000</t>
+  </si>
+  <si>
+    <t>FRK Technik</t>
+  </si>
+  <si>
+    <t>604-06-A1-3</t>
   </si>
 </sst>
 </file>
@@ -1310,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B17D3D7-3D1F-47AB-8B1A-2BFEDFCD8043}">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D142" sqref="A1:D142"/>
+      <selection activeCell="D148" sqref="A1:D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1371,7 +1413,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1382,10 +1424,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1393,13 +1435,13 @@
         <v>2841100300100</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1407,13 +1449,13 @@
         <v>2841100500100</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>189</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1421,13 +1463,13 @@
         <v>2841100600100</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1435,13 +1477,13 @@
         <v>2841100700100</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1455,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1469,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1477,91 +1519,91 @@
         <v>9242500089000</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C13" s="3">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>4</v>
@@ -1569,21 +1611,21 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>3</v>
@@ -1594,21 +1636,21 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
@@ -1619,136 +1661,136 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C23" s="3">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C28" s="3">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C30" s="3">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="3">
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>4</v>
@@ -1756,10 +1798,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
@@ -1767,10 +1809,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>4</v>
@@ -1778,10 +1820,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>4</v>
@@ -1789,24 +1831,24 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="3">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>4</v>
@@ -1814,10 +1856,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>4</v>
@@ -1825,10 +1867,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>
@@ -1836,10 +1878,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>4</v>
@@ -1847,10 +1889,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>4</v>
@@ -1858,86 +1900,83 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C42" s="3">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C43" s="3">
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>292</v>
+        <v>56</v>
       </c>
       <c r="C44" s="3">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="3">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C46" s="3">
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>178</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="3">
-        <v>2</v>
-      </c>
-      <c r="D47" t="s">
-        <v>220</v>
+        <v>46</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1945,7 +1984,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>4</v>
@@ -1956,7 +1995,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>4</v>
@@ -1964,69 +2003,72 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>4</v>
+        <v>52</v>
+      </c>
+      <c r="C50" s="3">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" s="3">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C54" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2034,41 +2076,41 @@
         <v>60</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C55" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C56" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C57" s="3">
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2076,13 +2118,13 @@
         <v>65</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C58" s="3">
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2090,41 +2132,41 @@
         <v>66</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C59" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C60" s="3">
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C61" s="3">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2132,41 +2174,41 @@
         <v>71</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C62" s="3">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C63" s="3">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C64" s="3">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2174,41 +2216,41 @@
         <v>76</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C65" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C66" s="3">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C67" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2216,35 +2258,32 @@
         <v>81</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C68" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="3">
-        <v>4</v>
-      </c>
-      <c r="D69" t="s">
-        <v>238</v>
+        <v>84</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>4</v>
@@ -2257,8 +2296,11 @@
       <c r="B71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>4</v>
+      <c r="C71" s="3">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2266,13 +2308,13 @@
         <v>87</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C72" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2280,13 +2322,13 @@
         <v>88</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="C73" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2294,13 +2336,13 @@
         <v>89</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="C74" s="3">
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2308,41 +2350,41 @@
         <v>90</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C75" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C76" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C77" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2350,41 +2392,41 @@
         <v>95</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C78" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C79" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="C80" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2392,13 +2434,13 @@
         <v>100</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C81" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2406,63 +2448,60 @@
         <v>101</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="C82" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>102</v>
+        <v>289</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="C83" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>292</v>
       </c>
       <c r="C84" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>296</v>
+        <v>103</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C85" s="3">
-        <v>2</v>
-      </c>
-      <c r="D85" t="s">
-        <v>298</v>
+        <v>104</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>4</v>
@@ -2470,13 +2509,16 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>4</v>
+        <v>82</v>
+      </c>
+      <c r="C87" s="3">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2484,13 +2526,13 @@
         <v>108</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C88" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2498,27 +2540,27 @@
         <v>109</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C89" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="C90" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2526,69 +2568,69 @@
         <v>112</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="C91" s="3">
         <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>252</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C92" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C93" s="3">
         <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C94" s="3">
         <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="C95" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2596,13 +2638,13 @@
         <v>121</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C96" s="3">
         <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2610,13 +2652,13 @@
         <v>122</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C97" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2624,13 +2666,13 @@
         <v>123</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C98" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2638,13 +2680,13 @@
         <v>124</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C99" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2652,21 +2694,18 @@
         <v>125</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C100" s="3">
-        <v>4</v>
-      </c>
-      <c r="D100" t="s">
-        <v>259</v>
+        <v>104</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>4</v>
@@ -2677,7 +2716,7 @@
         <v>129</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>4</v>
@@ -2685,10 +2724,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>4</v>
@@ -2699,7 +2738,7 @@
         <v>132</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>4</v>
@@ -2712,8 +2751,11 @@
       <c r="B105" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>4</v>
+      <c r="C105" s="3">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2721,13 +2763,10 @@
         <v>134</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C106" s="3">
-        <v>2</v>
-      </c>
-      <c r="D106" t="s">
-        <v>260</v>
+        <v>127</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2735,7 +2774,7 @@
         <v>135</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>4</v>
@@ -2746,24 +2785,27 @@
         <v>136</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>4</v>
+        <v>137</v>
+      </c>
+      <c r="C108" s="3">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C109" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D109" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2771,41 +2813,41 @@
         <v>139</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C110" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D110" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C111" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D111" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="C112" s="3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2813,24 +2855,24 @@
         <v>144</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C113" s="3">
-        <v>2</v>
-      </c>
-      <c r="D113" t="s">
-        <v>265</v>
+        <v>145</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="C114" s="3">
+        <v>3</v>
+      </c>
+      <c r="D114" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2838,13 +2880,13 @@
         <v>147</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C115" s="3">
         <v>3</v>
       </c>
       <c r="D115" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2852,27 +2894,24 @@
         <v>148</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="C116" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C117" s="3">
-        <v>8</v>
-      </c>
-      <c r="D117" t="s">
-        <v>267</v>
+        <v>104</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2880,10 +2919,13 @@
         <v>151</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="C118" s="3">
+        <v>12</v>
+      </c>
+      <c r="D118" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2891,41 +2933,41 @@
         <v>152</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C119" s="3">
-        <v>12</v>
+        <v>153</v>
+      </c>
+      <c r="C119" s="6">
+        <v>43628</v>
       </c>
       <c r="D119" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C120" s="6">
-        <v>43628</v>
+        <v>145</v>
+      </c>
+      <c r="C120" s="3">
+        <v>3</v>
       </c>
       <c r="D120" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C121" s="3">
         <v>3</v>
       </c>
       <c r="D121" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2933,13 +2975,13 @@
         <v>155</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C122" s="3">
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2947,41 +2989,41 @@
         <v>156</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C123" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>157</v>
+        <v>294</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="C124" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>299</v>
+        <v>157</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C125" s="3">
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>300</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2989,221 +3031,305 @@
         <v>158</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="C126" s="3">
         <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>159</v>
+        <v>300</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>8</v>
+        <v>301</v>
       </c>
       <c r="C127" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D127" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>160</v>
+        <v>303</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>146</v>
+        <v>301</v>
       </c>
       <c r="C128" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D128" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>162</v>
+        <v>301</v>
       </c>
       <c r="C129" s="3">
         <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="C130" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D130" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C131" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D131" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="C132" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>4</v>
+        <v>180</v>
+      </c>
+      <c r="C133" s="3">
+        <v>9</v>
+      </c>
+      <c r="D133" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>167</v>
+        <v>307</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>4</v>
+        <v>287</v>
+      </c>
+      <c r="C134" s="3">
+        <v>3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>168</v>
+        <v>309</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>4</v>
+        <v>104</v>
+      </c>
+      <c r="C135" s="3">
+        <v>3</v>
+      </c>
+      <c r="D135" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>4</v>
+        <v>163</v>
+      </c>
+      <c r="C136" s="3">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C137" s="3">
-        <v>2</v>
-      </c>
-      <c r="D137" t="s">
-        <v>279</v>
+        <v>165</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C138" s="3">
-        <v>8</v>
-      </c>
-      <c r="D138" t="s">
-        <v>280</v>
+        <v>58</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C139" s="3">
-        <v>2</v>
-      </c>
-      <c r="D139" t="s">
-        <v>281</v>
+        <v>46</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C140" s="3">
-        <v>2</v>
-      </c>
-      <c r="D140" t="s">
-        <v>282</v>
+        <v>46</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C141" s="5">
+      <c r="A141" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C141" s="3">
         <v>3</v>
       </c>
       <c r="D141" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>177</v>
+        <v>313</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C142" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C142" s="3">
+        <v>3</v>
+      </c>
+      <c r="D142" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C143" s="3">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C144" s="3">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C145" s="3">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C146" s="3">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C147" s="5">
+        <v>3</v>
+      </c>
+      <c r="D147" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Excel Data/KanbanList.xlsx
+++ b/Excel Data/KanbanList.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joint\OneDrive - Texas State University\001 Personal\Label Maker Repository\Label-maker\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tx05gapreca-svc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{7C4CBF1D-6357-4C57-AC28-38B1AC586B8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1F87B6F2-31C3-4F4D-AEBF-0E95146FDCB4}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6735" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{3341A95F-6DBF-473C-B641-113F26C249BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="335">
   <si>
     <t>Part Num</t>
   </si>
@@ -123,12 +122,6 @@
     <t>Jackson Die Casting</t>
   </si>
   <si>
-    <t>A1543830X0100</t>
-  </si>
-  <si>
-    <t>Modern Metal</t>
-  </si>
-  <si>
     <t>A1544293L0200</t>
   </si>
   <si>
@@ -144,12 +137,6 @@
     <t>A2C0003631500</t>
   </si>
   <si>
-    <t>A2C0114740000</t>
-  </si>
-  <si>
-    <t>A2C0114750000</t>
-  </si>
-  <si>
     <t>A2C0141960000</t>
   </si>
   <si>
@@ -630,9 +617,6 @@
     <t>606-09-C1/2</t>
   </si>
   <si>
-    <t>603-02-C1</t>
-  </si>
-  <si>
     <t>603-03-C1</t>
   </si>
   <si>
@@ -648,9 +632,6 @@
     <t>606-02-A</t>
   </si>
   <si>
-    <t>603-02-C2/3</t>
-  </si>
-  <si>
     <t>606-02-B3</t>
   </si>
   <si>
@@ -660,18 +641,9 @@
     <t>604-14-B1/2</t>
   </si>
   <si>
-    <t>604-02-D</t>
-  </si>
-  <si>
     <t>603-16-A</t>
   </si>
   <si>
-    <t>604-03-A/B</t>
-  </si>
-  <si>
-    <t>602-03-C/D</t>
-  </si>
-  <si>
     <t>601-13-A1/2</t>
   </si>
   <si>
@@ -759,9 +731,6 @@
     <t>605-14-B/C/D</t>
   </si>
   <si>
-    <t>601-03-D</t>
-  </si>
-  <si>
     <t>602-16-B/C</t>
   </si>
   <si>
@@ -810,9 +779,6 @@
     <t>604-02-B3 &amp; C</t>
   </si>
   <si>
-    <t>605-12-B/C/S &amp; 13-A &amp; 606-03-A/B/C/D</t>
-  </si>
-  <si>
     <t>606-10-C1/2</t>
   </si>
   <si>
@@ -846,9 +812,6 @@
     <t>604-03-C/D</t>
   </si>
   <si>
-    <t>603-02-B &amp; 03-A/B</t>
-  </si>
-  <si>
     <t>604-04-A/B/D</t>
   </si>
   <si>
@@ -861,9 +824,6 @@
     <t>602-15-A</t>
   </si>
   <si>
-    <t>604-14-A1/2</t>
-  </si>
-  <si>
     <t>605-01-A1/2</t>
   </si>
   <si>
@@ -885,9 +845,6 @@
     <t>A2C0170860000</t>
   </si>
   <si>
-    <t>A2C018432000</t>
-  </si>
-  <si>
     <t>A2C0305610000</t>
   </si>
   <si>
@@ -951,9 +908,6 @@
     <t>A2C7634430200</t>
   </si>
   <si>
-    <t>604-12-B-3</t>
-  </si>
-  <si>
     <t>A2C7723110000</t>
   </si>
   <si>
@@ -969,22 +923,124 @@
     <t>A2C9175080000</t>
   </si>
   <si>
-    <t>604-13-A1=3</t>
-  </si>
-  <si>
     <t>A2C9237910000</t>
   </si>
   <si>
-    <t>FRK Technik</t>
-  </si>
-  <si>
-    <t>604-06-A1-3</t>
+    <t>604-02-D1</t>
+  </si>
+  <si>
+    <t>604-02-D2/3</t>
+  </si>
+  <si>
+    <t>604-03-A</t>
+  </si>
+  <si>
+    <t>602-03-C</t>
+  </si>
+  <si>
+    <t>A2C0305620000</t>
+  </si>
+  <si>
+    <t>602-03-D</t>
+  </si>
+  <si>
+    <t>A2C0400500000</t>
+  </si>
+  <si>
+    <t>A2C5324895400</t>
+  </si>
+  <si>
+    <t>Krayden</t>
+  </si>
+  <si>
+    <t>A2C5335640500</t>
+  </si>
+  <si>
+    <t>Berquist</t>
+  </si>
+  <si>
+    <t>607-02-B1</t>
+  </si>
+  <si>
+    <t>601-03-D4</t>
+  </si>
+  <si>
+    <t>Caapsonic</t>
+  </si>
+  <si>
+    <t>604-07-D1/2/3</t>
+  </si>
+  <si>
+    <t>A2C7424860200</t>
+  </si>
+  <si>
+    <t>AVX</t>
+  </si>
+  <si>
+    <t>604-11-C1/2/3/4</t>
+  </si>
+  <si>
+    <t>604-07-B1/2/3</t>
+  </si>
+  <si>
+    <t>605-12-B/C/D &amp; 13-A &amp; 606-03-A/B/C/D</t>
+  </si>
+  <si>
+    <t>601-02-B3 &amp; C3 &amp; D3</t>
+  </si>
+  <si>
+    <t>6 12</t>
+  </si>
+  <si>
+    <t>604-12-B1-3</t>
+  </si>
+  <si>
+    <t>A2C7665670000</t>
+  </si>
+  <si>
+    <t>Trend Tech</t>
+  </si>
+  <si>
+    <t>604-08-B</t>
+  </si>
+  <si>
+    <t>A2C7665680000</t>
+  </si>
+  <si>
+    <t>604-08-C</t>
+  </si>
+  <si>
+    <t>A2C7677550100</t>
+  </si>
+  <si>
+    <t>604-11-B1/2/3</t>
+  </si>
+  <si>
+    <t>603-02-B/C &amp; 03-A/B</t>
+  </si>
+  <si>
+    <t>604-12-D</t>
+  </si>
+  <si>
+    <t>FRK Technik (TRK)</t>
+  </si>
+  <si>
+    <t>604-06-A</t>
+  </si>
+  <si>
+    <t>604-14-A1/2 &amp; 606-09-D1/2</t>
+  </si>
+  <si>
+    <t>A2C9953410100</t>
+  </si>
+  <si>
+    <t>604-07-A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1042,7 +1098,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1351,22 +1418,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B17D3D7-3D1F-47AB-8B1A-2BFEDFCD8043}">
-  <dimension ref="A1:D148"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D148" sqref="A1:D148"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1374,13 +1441,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>2840359100100</v>
       </c>
@@ -1391,7 +1458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2840359200100</v>
       </c>
@@ -1402,7 +1469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2841053700100</v>
       </c>
@@ -1413,10 +1480,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2841074301100</v>
       </c>
@@ -1424,69 +1491,69 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2841100300100</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2841100500100</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2841100600100</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2841100700100</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>2841343204100</v>
       </c>
@@ -1497,10 +1564,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2841343304100</v>
       </c>
@@ -1511,24 +1578,24 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9242500089000</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -1539,10 +1606,10 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -1553,10 +1620,10 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
@@ -1567,10 +1634,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -1581,10 +1648,10 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -1595,10 +1662,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
@@ -1609,7 +1676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1620,10 +1687,10 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -1634,7 +1701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -1645,10 +1712,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -1659,7 +1726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -1670,10 +1737,10 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
@@ -1684,10 +1751,10 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -1698,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>27</v>
       </c>
@@ -1712,10 +1779,10 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
@@ -1726,251 +1793,251 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="3">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C29" s="3">
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="3">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="3">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="B34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="3">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="3">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="C44" s="3">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="3">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C43" s="3">
-        <v>3</v>
-      </c>
-      <c r="D43" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="3">
-        <v>4</v>
-      </c>
-      <c r="D44" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="3">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="B46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="3">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>46</v>
@@ -1979,308 +2046,311 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C50" s="3">
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="3">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="3">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C51" s="3">
-        <v>3</v>
-      </c>
-      <c r="D51" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="3">
-        <v>3</v>
-      </c>
-      <c r="D52" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C53" s="3">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C54" s="3">
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="3">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="3">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C56" s="3">
-        <v>3</v>
-      </c>
-      <c r="D56" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="3">
-        <v>3</v>
-      </c>
-      <c r="D57" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="3">
-        <v>3</v>
-      </c>
-      <c r="D58" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C59" s="3">
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C60" s="3">
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C61" s="3">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C62" s="3">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C63" s="3">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C64" s="3">
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C65" s="3">
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C66" s="3">
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C67" s="3">
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="3">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" s="3">
-        <v>4</v>
-      </c>
-      <c r="D68" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>7</v>
@@ -2289,9 +2359,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>7</v>
@@ -2300,26 +2370,26 @@
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C72" s="3">
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>8</v>
@@ -2328,138 +2398,138 @@
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C74" s="3">
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C76" s="3">
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C77" s="3">
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C78" s="3">
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C79" s="3">
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C80" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C81" s="3">
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C82" s="3">
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>26</v>
@@ -2468,872 +2538,954 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C84" s="3">
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C85" s="3">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="B87" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C87" s="3">
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C88" s="3">
         <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C89" s="3">
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" s="3">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C91" s="3">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="3">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C90" s="3">
-        <v>3</v>
-      </c>
-      <c r="D90" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C91" s="3">
-        <v>3</v>
-      </c>
-      <c r="D91" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C92" s="3">
-        <v>6</v>
-      </c>
-      <c r="D92" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C93" s="3">
         <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C94" s="3">
         <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" s="3">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" s="3">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C97" s="3">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C98" s="3">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C95" s="3">
-        <v>3</v>
-      </c>
-      <c r="D95" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+      <c r="B100" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" s="3">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C96" s="3">
-        <v>3</v>
-      </c>
-      <c r="D96" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="B101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C97" s="3">
-        <v>8</v>
-      </c>
-      <c r="D97" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C98" s="3">
-        <v>1</v>
-      </c>
-      <c r="D98" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C99" s="3">
-        <v>4</v>
-      </c>
-      <c r="D99" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="C102" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="B103" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C104" s="3">
+        <v>3</v>
+      </c>
+      <c r="D104" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C106" s="3">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C105" s="3">
+      <c r="C109" s="3">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C110" s="3">
+        <v>4</v>
+      </c>
+      <c r="D110" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="3">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" s="3">
+        <v>17</v>
+      </c>
+      <c r="D112" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" s="3">
         <v>2</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C114" s="3">
+        <v>3</v>
+      </c>
+      <c r="D114" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C115" s="3">
+        <v>3</v>
+      </c>
+      <c r="D115" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C116" s="3">
+        <v>3</v>
+      </c>
+      <c r="D116" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117" s="3">
+        <v>12</v>
+      </c>
+      <c r="D117" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C118" s="3">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D120" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C121" s="3">
+        <v>3</v>
+      </c>
+      <c r="D121" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" s="3">
+        <v>3</v>
+      </c>
+      <c r="D122" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C123" s="3">
+        <v>3</v>
+      </c>
+      <c r="D123" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C108" s="3">
-        <v>5</v>
-      </c>
-      <c r="D108" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C124" s="3">
+        <v>4</v>
+      </c>
+      <c r="D124" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C109" s="3">
-        <v>4</v>
-      </c>
-      <c r="D109" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C110" s="3">
-        <v>16</v>
-      </c>
-      <c r="D110" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C111" s="3">
-        <v>17</v>
-      </c>
-      <c r="D111" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C112" s="3">
-        <v>2</v>
-      </c>
-      <c r="D112" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C114" s="3">
-        <v>3</v>
-      </c>
-      <c r="D114" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C115" s="3">
-        <v>3</v>
-      </c>
-      <c r="D115" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C116" s="3">
-        <v>8</v>
-      </c>
-      <c r="D116" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C118" s="3">
-        <v>12</v>
-      </c>
-      <c r="D118" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C119" s="6">
-        <v>43628</v>
-      </c>
-      <c r="D119" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C120" s="3">
-        <v>3</v>
-      </c>
-      <c r="D120" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C121" s="3">
-        <v>3</v>
-      </c>
-      <c r="D121" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C122" s="3">
-        <v>3</v>
-      </c>
-      <c r="D122" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C123" s="3">
-        <v>4</v>
-      </c>
-      <c r="D123" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C124" s="3">
-        <v>2</v>
-      </c>
-      <c r="D124" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C125" s="3">
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C126" s="3">
         <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>300</v>
+        <v>154</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>301</v>
+        <v>8</v>
       </c>
       <c r="C127" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C128" s="3">
         <v>3</v>
       </c>
       <c r="D128" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C129" s="3">
         <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C130" s="3">
+        <v>3</v>
+      </c>
+      <c r="D130" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C131" s="3">
+        <v>3</v>
+      </c>
+      <c r="D131" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C132" s="3">
+        <v>3</v>
+      </c>
+      <c r="D132" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C133" s="3">
+        <v>4</v>
+      </c>
+      <c r="D133" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C134" s="3">
+        <v>3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C135" s="3">
+        <v>3</v>
+      </c>
+      <c r="D135" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C136" s="3">
+        <v>10</v>
+      </c>
+      <c r="D136" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C137" s="3">
+        <v>9</v>
+      </c>
+      <c r="D137" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C138" s="3">
+        <v>3</v>
+      </c>
+      <c r="D138" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C139" s="3">
+        <v>3</v>
+      </c>
+      <c r="D139" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C130" s="3">
-        <v>4</v>
-      </c>
-      <c r="D130" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
+      <c r="C140" s="3">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C131" s="3">
-        <v>3</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="C141" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="4" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C132" s="3">
-        <v>7</v>
-      </c>
-      <c r="D132" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C133" s="3">
-        <v>9</v>
-      </c>
-      <c r="D133" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C134" s="3">
-        <v>3</v>
-      </c>
-      <c r="D134" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C135" s="3">
-        <v>3</v>
-      </c>
-      <c r="D135" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C136" s="3">
+      <c r="B145" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C145" s="3">
+        <v>3</v>
+      </c>
+      <c r="D145" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C146" s="3">
+        <v>3</v>
+      </c>
+      <c r="D146" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C147" s="3">
         <v>2</v>
       </c>
-      <c r="D136" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
+      <c r="D147" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
+      <c r="B148" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C148" s="3">
+        <v>8</v>
+      </c>
+      <c r="D148" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C141" s="3">
-        <v>3</v>
-      </c>
-      <c r="D141" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C142" s="3">
-        <v>3</v>
-      </c>
-      <c r="D142" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
+      <c r="B149" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C149" s="3">
+        <v>4</v>
+      </c>
+      <c r="D149" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C143" s="3">
+      <c r="B150" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C150" s="3">
         <v>2</v>
       </c>
-      <c r="D143" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
+      <c r="D150" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C144" s="3">
-        <v>8</v>
-      </c>
-      <c r="D144" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
+      <c r="B151" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C151" s="5">
+        <v>3</v>
+      </c>
+      <c r="D151" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C145" s="3">
-        <v>2</v>
-      </c>
-      <c r="D145" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C146" s="3">
-        <v>2</v>
-      </c>
-      <c r="D146" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C147" s="5">
-        <v>3</v>
-      </c>
-      <c r="D147" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>4</v>
+      <c r="B152" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C153" s="3">
+        <v>3</v>
+      </c>
+      <c r="D153" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel Data/KanbanList.xlsx
+++ b/Excel Data/KanbanList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14652" windowHeight="6708"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="389">
   <si>
     <t>Part Num</t>
   </si>
@@ -248,9 +248,6 @@
     <t>A2C7300690100</t>
   </si>
   <si>
-    <t>A2c7313400000</t>
-  </si>
-  <si>
     <t>Hatch</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
     <t>Nedec, Yoder</t>
   </si>
   <si>
-    <t>A2C7331290000</t>
-  </si>
-  <si>
     <t>A2C7341490200</t>
   </si>
   <si>
@@ -1035,6 +1029,174 @@
   </si>
   <si>
     <t>604-07-A</t>
+  </si>
+  <si>
+    <t>A2C0251720000</t>
+  </si>
+  <si>
+    <t>A2C0297810000</t>
+  </si>
+  <si>
+    <t>A2C0220280000</t>
+  </si>
+  <si>
+    <t>A2C0341510000</t>
+  </si>
+  <si>
+    <t>606-06-C/D4</t>
+  </si>
+  <si>
+    <t>606-06-A/B3</t>
+  </si>
+  <si>
+    <t>606-06-A/B2</t>
+  </si>
+  <si>
+    <t>606-06-A/B1</t>
+  </si>
+  <si>
+    <t>A2C0006355300</t>
+  </si>
+  <si>
+    <t>A2C0125550000</t>
+  </si>
+  <si>
+    <t>606-06-C/D1</t>
+  </si>
+  <si>
+    <t>606-06-C/D2</t>
+  </si>
+  <si>
+    <t>A2C0217460000</t>
+  </si>
+  <si>
+    <t>A2C0311360000</t>
+  </si>
+  <si>
+    <t>A2C0297790000</t>
+  </si>
+  <si>
+    <t>A2C0259430000</t>
+  </si>
+  <si>
+    <t>A2C0255240000</t>
+  </si>
+  <si>
+    <t>A2C0299660000</t>
+  </si>
+  <si>
+    <t>A2C0006354900</t>
+  </si>
+  <si>
+    <t>A2C0316190000</t>
+  </si>
+  <si>
+    <t>606-05-C/D1</t>
+  </si>
+  <si>
+    <t>606-05-C/D2</t>
+  </si>
+  <si>
+    <t>606-05-C/D3</t>
+  </si>
+  <si>
+    <t>606-05-C/D4</t>
+  </si>
+  <si>
+    <t>606-06-C/D3</t>
+  </si>
+  <si>
+    <t>606-05-A/B1</t>
+  </si>
+  <si>
+    <t>606-05-A/B2</t>
+  </si>
+  <si>
+    <t>606-05-A/B3</t>
+  </si>
+  <si>
+    <t>606-05-A/B4</t>
+  </si>
+  <si>
+    <t>A2C0291490000</t>
+  </si>
+  <si>
+    <t>A2C0311520000</t>
+  </si>
+  <si>
+    <t>A2C0217450000</t>
+  </si>
+  <si>
+    <t>A2C0305630000</t>
+  </si>
+  <si>
+    <t>A2C0311490000</t>
+  </si>
+  <si>
+    <t>606-04-C/D1</t>
+  </si>
+  <si>
+    <t>606-04-C/D2</t>
+  </si>
+  <si>
+    <t>606-04-C/D3</t>
+  </si>
+  <si>
+    <t>606-04-C/D4</t>
+  </si>
+  <si>
+    <t>606-04-A/B1</t>
+  </si>
+  <si>
+    <t>606-04-A/B4</t>
+  </si>
+  <si>
+    <t>606-04-A/B3/4</t>
+  </si>
+  <si>
+    <t>A2C1194820000</t>
+  </si>
+  <si>
+    <t>A2C8572180000</t>
+  </si>
+  <si>
+    <t>A2C3932610000</t>
+  </si>
+  <si>
+    <t>A2C3932570000</t>
+  </si>
+  <si>
+    <t>A2C1194800000</t>
+  </si>
+  <si>
+    <t>606-07-A/B4</t>
+  </si>
+  <si>
+    <t>606-07-C1</t>
+  </si>
+  <si>
+    <t>606-07-C2</t>
+  </si>
+  <si>
+    <t>606-07-C4</t>
+  </si>
+  <si>
+    <t>606-07-D4</t>
+  </si>
+  <si>
+    <t>606-07-A/B3</t>
+  </si>
+  <si>
+    <t>A2C1794160000</t>
+  </si>
+  <si>
+    <t>606-07-D3</t>
+  </si>
+  <si>
+    <t>A2c7313400100</t>
+  </si>
+  <si>
+    <t>A2C7331290100</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1072,11 +1234,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1094,11 +1265,89 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1419,10 +1668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1441,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1480,7 +1729,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1491,10 +1740,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1502,13 +1751,13 @@
         <v>2841100300100</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1516,13 +1765,13 @@
         <v>2841100500100</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1530,13 +1779,13 @@
         <v>2841100600100</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1544,13 +1793,13 @@
         <v>2841100700100</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1564,7 +1813,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1578,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1586,13 +1835,13 @@
         <v>9242500089000</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1606,7 +1855,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1620,7 +1869,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1634,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1648,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1662,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1687,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1712,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1737,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1751,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1765,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1779,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1793,7 +2042,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1807,7 +2056,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1821,7 +2070,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1835,7 +2084,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1871,7 +2120,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1887,7 +2136,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>32</v>
@@ -1903,24 +2152,30 @@
       <c r="B36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>4</v>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="3">
         <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>32</v>
@@ -1929,18 +2184,21 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>4</v>
+      <c r="C39" s="3">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1954,26 +2212,26 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C41" s="3">
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>52</v>
@@ -1982,12 +2240,12 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>52</v>
@@ -1996,7 +2254,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2010,7 +2268,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2048,10 +2306,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>4</v>
@@ -2059,16 +2317,16 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C49" s="3">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2082,7 +2340,7 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2096,7 +2354,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2110,7 +2368,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2124,7 +2382,7 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2138,7 +2396,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2152,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2166,7 +2424,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2180,7 +2438,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2194,7 +2452,7 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2208,7 +2466,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2222,7 +2480,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2236,7 +2494,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2250,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2264,7 +2522,7 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2278,71 +2536,71 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C65" s="3">
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C66" s="3">
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>76</v>
+        <v>388</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="3">
         <v>12</v>
       </c>
       <c r="D67" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C68" s="3">
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>4</v>
@@ -2350,7 +2608,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>7</v>
@@ -2361,7 +2619,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>7</v>
@@ -2370,12 +2628,12 @@
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>70</v>
@@ -2384,12 +2642,12 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>8</v>
@@ -2398,54 +2656,54 @@
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C74" s="3">
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C76" s="3">
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>52</v>
@@ -2454,40 +2712,40 @@
         <v>12</v>
       </c>
       <c r="D77" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C78" s="3">
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C79" s="3">
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>52</v>
@@ -2496,12 +2754,12 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>52</v>
@@ -2510,26 +2768,26 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C82" s="3">
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>26</v>
@@ -2538,43 +2796,43 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C84" s="3">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
         <v>277</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C84" s="3">
-        <v>2</v>
-      </c>
-      <c r="D84" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C85" s="3">
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>4</v>
@@ -2582,49 +2840,49 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C87" s="3">
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C88" s="3">
         <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C89" s="3">
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>54</v>
@@ -2633,82 +2891,82 @@
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C91" s="3">
         <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C92" s="3">
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C93" s="3">
         <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C94" s="3">
         <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C95" s="3">
         <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>54</v>
@@ -2717,12 +2975,12 @@
         <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>54</v>
@@ -2731,26 +2989,26 @@
         <v>3</v>
       </c>
       <c r="D97" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C98" s="3">
         <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>70</v>
@@ -2759,12 +3017,12 @@
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>70</v>
@@ -2773,15 +3031,15 @@
         <v>4</v>
       </c>
       <c r="D100" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>4</v>
@@ -2789,10 +3047,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>4</v>
@@ -2800,10 +3058,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>4</v>
@@ -2811,24 +3069,24 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C104" s="3">
         <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>4</v>
@@ -2836,24 +3094,24 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C106" s="3">
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>4</v>
@@ -2861,10 +3119,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>4</v>
@@ -2872,63 +3130,63 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C109" s="3">
         <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C110" s="3">
         <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C111" s="3">
         <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C112" s="3">
         <v>17</v>
       </c>
       <c r="D112" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>52</v>
@@ -2937,26 +3195,26 @@
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C114" s="3">
         <v>3</v>
       </c>
       <c r="D114" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>59</v>
@@ -2965,12 +3223,12 @@
         <v>3</v>
       </c>
       <c r="D115" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>59</v>
@@ -2979,12 +3237,12 @@
         <v>3</v>
       </c>
       <c r="D116" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>52</v>
@@ -2993,29 +3251,29 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C118" s="3">
         <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>4</v>
@@ -3023,105 +3281,105 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D120" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C121" s="3">
         <v>3</v>
       </c>
       <c r="D121" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C122" s="3">
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C123" s="3">
         <v>3</v>
       </c>
       <c r="D123" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C124" s="3">
         <v>4</v>
       </c>
       <c r="D124" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C125" s="3">
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C126" s="3">
         <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>8</v>
@@ -3130,197 +3388,197 @@
         <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C128" s="3">
+        <v>3</v>
+      </c>
+      <c r="D128" t="s">
         <v>286</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C128" s="3">
-        <v>3</v>
-      </c>
-      <c r="D128" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C129" s="3">
         <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C130" s="3">
         <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C131" s="3">
+        <v>3</v>
+      </c>
+      <c r="D131" t="s">
         <v>321</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C131" s="3">
-        <v>3</v>
-      </c>
-      <c r="D131" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C132" s="3">
         <v>3</v>
       </c>
       <c r="D132" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C133" s="3">
         <v>4</v>
       </c>
       <c r="D133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C134" s="3">
         <v>3</v>
       </c>
       <c r="D134" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C135" s="3">
         <v>3</v>
       </c>
       <c r="D135" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="C136" s="3">
         <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C137" s="3">
         <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C138" s="3">
         <v>3</v>
       </c>
       <c r="D138" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C139" s="3">
         <v>3</v>
       </c>
       <c r="D139" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C140" s="3">
         <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>4</v>
@@ -3328,7 +3586,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>54</v>
@@ -3339,18 +3597,21 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>4</v>
+      <c r="C143" s="3">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>42</v>
@@ -3361,7 +3622,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>70</v>
@@ -3370,40 +3631,40 @@
         <v>3</v>
       </c>
       <c r="D145" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C146" s="3">
         <v>3</v>
       </c>
       <c r="D146" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C147" s="3">
         <v>2</v>
       </c>
       <c r="D147" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>52</v>
@@ -3412,26 +3673,26 @@
         <v>8</v>
       </c>
       <c r="D148" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C149" s="3">
         <v>4</v>
       </c>
       <c r="D149" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>54</v>
@@ -3440,12 +3701,12 @@
         <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>54</v>
@@ -3454,12 +3715,12 @@
         <v>3</v>
       </c>
       <c r="D151" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>54</v>
@@ -3469,17 +3730,367 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C153" s="9">
+        <v>3</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C154" s="3">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C155" s="3">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C156" s="3">
+        <v>2</v>
+      </c>
+      <c r="D156" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C157" s="3">
+        <v>2</v>
+      </c>
+      <c r="D157" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C158" s="3">
+        <v>2</v>
+      </c>
+      <c r="D158" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C159" s="3">
+        <v>2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C160" s="3">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C161" s="3">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C162" s="3">
+        <v>2</v>
+      </c>
+      <c r="D162" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C163" s="3">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C164" s="3">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C165" s="3">
+        <v>2</v>
+      </c>
+      <c r="D165" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C166" s="3">
+        <v>2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C167" s="3">
+        <v>2</v>
+      </c>
+      <c r="D167" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C168" s="3">
+        <v>2</v>
+      </c>
+      <c r="D168" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C169" s="3">
+        <v>2</v>
+      </c>
+      <c r="D169" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C170" s="3">
+        <v>2</v>
+      </c>
+      <c r="D170" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C171" s="3">
+        <v>2</v>
+      </c>
+      <c r="D171" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C153" s="3">
-        <v>3</v>
-      </c>
-      <c r="D153" t="s">
-        <v>334</v>
+      <c r="B172" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C172" s="3">
+        <v>2</v>
+      </c>
+      <c r="D172" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C173" s="3">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1</v>
+      </c>
+      <c r="D174" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1</v>
+      </c>
+      <c r="D175" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1</v>
+      </c>
+      <c r="D176" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1</v>
+      </c>
+      <c r="D177" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C178" s="3">
+        <v>1</v>
+      </c>
+      <c r="D178" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
